--- a/documents/Todo List.xlsx
+++ b/documents/Todo List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd012\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd012\Documents\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,38 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미들웨어 만들어놔서 추가하는 족족 다 권한 부여할수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지상?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -628,16 +666,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,45 +703,90 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,42 +794,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,14 +1079,14 @@
   <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="1"/>
     <col min="5" max="5" width="13.296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="56.796875" style="1" customWidth="1"/>
@@ -1050,485 +1094,512 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="11" t="s">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="27"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="12" t="s">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18"/>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="12" t="s">
+    <row r="6" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="41"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12" t="s">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="27"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="23" t="s">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="41"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="13" t="s">
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="41"/>
+      <c r="B9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="2" t="s">
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="41"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="2" t="s">
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="41"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="2" t="s">
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="41"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="28"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="42"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29" t="s">
+      <c r="D13" s="28">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>1</v>
       </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="11" t="s">
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="32"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="12" t="s">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="32"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="12" t="s">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="32"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="30"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="23" t="s">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="32"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="24">
-        <v>0</v>
-      </c>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="13" t="s">
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="32"/>
+      <c r="B19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>1</v>
       </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="30"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="12" t="s">
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="32"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="12" t="s">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="32"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="12" t="s">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="32"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="30"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="12" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="32"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="30"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="23" t="s">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="32"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="30"/>
-      <c r="B25" s="25" t="s">
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="32"/>
+      <c r="B25" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="33">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="31"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23" t="s">
+      <c r="D25" s="20">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="24">
-        <v>0</v>
-      </c>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="29" t="s">
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="21">
         <v>0.7</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="30"/>
-      <c r="B28" s="25" t="s">
+      <c r="E27" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="32"/>
+      <c r="B28" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="33">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="30"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23" t="s">
+      <c r="D28" s="20">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="32"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="24">
-        <v>0</v>
-      </c>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="31"/>
-      <c r="B30" s="5" t="s">
+      <c r="D29" s="18">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="33"/>
+      <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="36">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="29" t="s">
+      <c r="D30" s="23">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="21">
         <v>0.7</v>
       </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="25" t="s">
+      <c r="E31" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="32"/>
+      <c r="B32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="33">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="30"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23" t="s">
+      <c r="D32" s="20">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="32"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="24">
-        <v>0</v>
-      </c>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="31"/>
-      <c r="B34" s="5" t="s">
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="33"/>
+      <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="36">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D34" s="23">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B28:B29"/>

--- a/documents/Todo List.xlsx
+++ b/documents/Todo List.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd012\Documents\카카오톡 받은 파일\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내정보 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>찬영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현희</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,19 +241,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지상?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성우 현희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 페이지 (ID/PW 변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 전송 기능 (SMTP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 완료 (물론 작업이 필요할 수 있음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고 제작 (Greedy?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,12 +365,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -660,13 +691,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,9 +800,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,9 +842,6 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,58 +851,121 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,7 +1028,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -891,7 +1063,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1068,540 +1240,594 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="1"/>
-    <col min="5" max="5" width="13.296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.796875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" ht="21" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="20.65" customHeight="1">
+      <c r="A3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="10" t="s">
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.65" customHeight="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="11" t="s">
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.65" customHeight="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="48">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.65" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.65" customHeight="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="41"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="41"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="41"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="41"/>
-      <c r="B9" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="G10" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.65" customHeight="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="26">
+      <c r="E11" s="14"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.65" customHeight="1">
+      <c r="A12" s="35"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="41"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="26">
+      <c r="E12" s="14"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="38">
         <v>1</v>
       </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="41"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="26">
+      <c r="E13" s="15"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12">
         <v>1</v>
       </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="42"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="28">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="32"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="10" t="s">
-        <v>19</v>
+      <c r="E14" s="13"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.65" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="32"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="11" t="s">
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.65" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.65" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A18" s="26"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.65" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.65" customHeight="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.65" customHeight="1">
+      <c r="A21" s="26"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.65" customHeight="1">
+      <c r="A22" s="26"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.65" customHeight="1">
+      <c r="A23" s="26"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A24" s="26"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.65" customHeight="1">
+      <c r="A25" s="26"/>
+      <c r="B25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A26" s="27"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A27" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="41">
+        <v>1</v>
+      </c>
+      <c r="E27" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="32"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="32"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="32"/>
-      <c r="B19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="32"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="32"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="32"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="32"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="32"/>
-      <c r="B25" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="33"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="31" t="s">
+    <row r="28" spans="1:5" ht="20.65" customHeight="1">
+      <c r="A28" s="26"/>
+      <c r="B28" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A31" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="32"/>
-      <c r="B28" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="32"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="33"/>
-      <c r="B30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="23">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="31" t="s">
-        <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="41">
+        <v>1</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.65" customHeight="1">
+      <c r="A32" s="26"/>
+      <c r="B32" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="32"/>
-      <c r="B32" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="19" t="s">
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A33" s="26"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="20">
-        <v>0</v>
-      </c>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="32"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0</v>
-      </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="33"/>
+      <c r="D33" s="17">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A34" s="27"/>
       <c r="B34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="23">
+        <v>34</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="21">
         <v>0</v>
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="20.55" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:5" ht="20.65" customHeight="1" thickBot="1"/>
+    <row r="36" spans="1:5" ht="20.65" customHeight="1">
+      <c r="A36" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.65" customHeight="1">
+      <c r="A37" s="60"/>
+      <c r="B37" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.65" customHeight="1" thickBot="1">
+      <c r="A38" s="61"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.65" customHeight="1"/>
+    <row r="40" spans="1:5" ht="20.65" customHeight="1"/>
+    <row r="41" spans="1:5" ht="20.65" customHeight="1"/>
+    <row r="42" spans="1:5" ht="20.65" customHeight="1"/>
+    <row r="43" spans="1:5" ht="20.65" customHeight="1"/>
+    <row r="44" spans="1:5" ht="20.65" customHeight="1"/>
+    <row r="45" spans="1:5" ht="20.65" customHeight="1"/>
+    <row r="46" spans="1:5" ht="20.65" customHeight="1"/>
+    <row r="47" spans="1:5" ht="20.65" customHeight="1"/>
+    <row r="48" spans="1:5" ht="20.65" customHeight="1"/>
+    <row r="49" ht="20.65" customHeight="1"/>
+    <row r="50" ht="20.65" customHeight="1"/>
+    <row r="51" ht="20.65" customHeight="1"/>
+    <row r="52" ht="20.65" customHeight="1"/>
+    <row r="53" ht="20.65" customHeight="1"/>
+    <row r="54" ht="20.65" customHeight="1"/>
+    <row r="55" ht="20.65" customHeight="1"/>
+    <row r="56" ht="20.65" customHeight="1"/>
+    <row r="57" ht="20.65" customHeight="1"/>
+    <row r="58" ht="20.65" customHeight="1"/>
+    <row r="59" ht="20.65" customHeight="1"/>
+    <row r="60" ht="20.65" customHeight="1"/>
+    <row r="61" ht="20.65" customHeight="1"/>
+    <row r="62" ht="20.65" customHeight="1"/>
+    <row r="63" ht="20.65" customHeight="1"/>
+    <row r="64" ht="20.65" customHeight="1"/>
+    <row r="65" ht="20.65" customHeight="1"/>
+    <row r="66" ht="20.65" customHeight="1"/>
+    <row r="67" ht="20.65" customHeight="1"/>
+    <row r="68" ht="20.65" customHeight="1"/>
+    <row r="69" ht="20.65" customHeight="1"/>
+    <row r="70" ht="20.65" customHeight="1"/>
+    <row r="71" ht="20.65" customHeight="1"/>
+    <row r="72" ht="20.65" customHeight="1"/>
+    <row r="73" ht="20.65" customHeight="1"/>
+    <row r="74" ht="20.65" customHeight="1"/>
+    <row r="75" ht="20.65" customHeight="1"/>
+    <row r="76" ht="20.65" customHeight="1"/>
+    <row r="77" ht="20.65" customHeight="1"/>
+    <row r="78" ht="20.65" customHeight="1"/>
+    <row r="79" ht="20.65" customHeight="1"/>
+    <row r="80" ht="20.65" customHeight="1"/>
+    <row r="81" ht="20.65" customHeight="1"/>
+    <row r="82" ht="20.65" customHeight="1"/>
+    <row r="83" ht="20.65" customHeight="1"/>
+    <row r="84" ht="20.65" customHeight="1"/>
+    <row r="85" ht="20.65" customHeight="1"/>
+    <row r="86" ht="20.65" customHeight="1"/>
+    <row r="87" ht="20.65" customHeight="1"/>
+    <row r="88" ht="20.65" customHeight="1"/>
+    <row r="89" ht="20.65" customHeight="1"/>
+    <row r="90" ht="20.65" customHeight="1"/>
+    <row r="91" ht="20.65" customHeight="1"/>
+    <row r="92" ht="20.65" customHeight="1"/>
+    <row r="93" ht="20.65" customHeight="1"/>
+    <row r="94" ht="20.65" customHeight="1"/>
+    <row r="95" ht="20.65" customHeight="1"/>
+    <row r="96" ht="20.65" customHeight="1"/>
+    <row r="97" ht="20.65" customHeight="1"/>
+    <row r="98" ht="20.65" customHeight="1"/>
+    <row r="99" ht="20.65" customHeight="1"/>
+    <row r="100" ht="20.65" customHeight="1"/>
+    <row r="101" ht="20.65" customHeight="1"/>
+    <row r="102" ht="20.65" customHeight="1"/>
+    <row r="103" ht="20.65" customHeight="1"/>
+    <row r="104" ht="20.65" customHeight="1"/>
+    <row r="105" ht="20.65" customHeight="1"/>
+    <row r="106" ht="20.65" customHeight="1"/>
+    <row r="107" ht="20.65" customHeight="1"/>
+    <row r="108" ht="20.65" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B32:B33"/>
